--- a/Reports/Report_Sample_02.xlsx
+++ b/Reports/Report_Sample_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80230470\PycharmProjects\Test_build_app\Cloud_compile\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86823A6A-C05E-4EF0-8157-C337788AA6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771426B0-003D-49B1-AB8A-D216869D479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>CHƯƠNG TRÌNH KHUYẾN MÃI (ACTIVE PROMO)</t>
-  </si>
-  <si>
-    <t>CHỤP HÌNH CTKM</t>
-  </si>
-  <si>
-    <t>VIEW QUESTIONS</t>
   </si>
   <si>
     <t>PHOTO 1</t>
@@ -600,7 +594,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -613,7 +607,7 @@
     <col min="16" max="16" width="10.5546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" style="1"/>
-    <col min="19" max="19" width="18.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="163" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -721,22 +715,22 @@
         <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -777,25 +771,25 @@
         <v>45078.401122679999</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -815,19 +809,19 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="K4" s="3">
         <v>45078.4059375</v>
@@ -836,25 +830,25 @@
         <v>45078.410543979997</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -874,19 +868,19 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="K5" s="3">
         <v>45078.4059375</v>
@@ -895,25 +889,25 @@
         <v>45078.410543979997</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -933,19 +927,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1">
         <v>45078.520972220002</v>
@@ -954,25 +948,25 @@
         <v>45078.410567129999</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
